--- a/DSA_Complexity_Approach_Summary.xlsx
+++ b/DSA_Complexity_Approach_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\DS_Algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BE3B83-9F95-4960-99E1-FB8319F42491}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367D7094-6DF4-40F3-894E-100B0A9D0D96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C7DA42C0-8676-4968-AC5A-1DF6373B69DD}"/>
   </bookViews>
@@ -269,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -309,65 +309,59 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -725,62 +719,62 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="15">
+      <c r="B7" s="21">
         <v>239</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="23">
+      <c r="B9" s="17">
         <v>1423</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -789,60 +783,60 @@
       <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="28"/>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="15">
+      <c r="B11" s="21">
         <v>1689</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="29" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
@@ -853,18 +847,6 @@
   </sheetData>
   <autoFilter ref="D4:D13" xr:uid="{01936871-3493-4E89-B73E-80D226EFDB57}"/>
   <mergeCells count="24">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -877,6 +859,18 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{5EEC797D-8756-4094-A6F4-DAE3DC7285B7}"/>
@@ -899,7 +893,7 @@
   <dimension ref="B4:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,10 +935,10 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="15">
+      <c r="B5" s="21">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -965,8 +959,8 @@
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
@@ -987,8 +981,8 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="13" t="s">
         <v>26</v>
       </c>
